--- a/nmi/nmi_level.xlsx
+++ b/nmi/nmi_level.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanjz\Desktop\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanjz\Desktop\python\nmi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB798A0F-8319-4C4D-837F-A2D69C0BF101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35468F15-1B74-44A0-81E2-00ED5E7B2099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{13FD4922-1130-428D-98C3-B68A5F0F6B40}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Business Activity</t>
   </si>
   <si>
-    <t>New Orders</t>
-  </si>
-  <si>
     <t>Employment</t>
   </si>
   <si>
@@ -59,12 +56,6 @@
     <t>Prices</t>
   </si>
   <si>
-    <t>Backlog of Orders</t>
-  </si>
-  <si>
-    <t>Exports</t>
-  </si>
-  <si>
     <t>Imports</t>
   </si>
   <si>
@@ -72,6 +63,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>New Order</t>
+  </si>
+  <si>
+    <t>Backlog Orders</t>
+  </si>
+  <si>
+    <t>New Export Orders</t>
   </si>
 </sst>
 </file>
@@ -453,9 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7EC82DB-BA22-401B-9178-0F3AFC2464F3}">
   <dimension ref="A1:L315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="A315" sqref="A315"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -464,7 +462,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -473,31 +471,31 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
